--- a/res/engine/leverage/레버리지_수익률_계산.xlsx
+++ b/res/engine/leverage/레버리지_수익률_계산.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202201006\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202201006\Desktop\project\mgcho\Toy_Project2_fastapi\res\engine\leverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F14B0-9084-4A7E-B3C0-14AE8F89A6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E30C16-046A-4641-B2BA-1D24C8F31222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E45D16DF-ED13-458A-875C-AD5B584E76A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>자산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,38 @@
   </si>
   <si>
     <t>님들의 빚투 계산기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_profit_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -243,13 +281,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,44 +322,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA22C3CF-051C-4597-B119-D1DB786EB87B}">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:M11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,34 +704,35 @@
     <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -687,12 +751,12 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
         <f>D5/F5</f>
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:C14" si="0">E5/F5</f>
         <v>9</v>
       </c>
@@ -707,12 +771,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
         <f t="shared" ref="B6:B14" si="2">D6/F6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -727,12 +791,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
@@ -747,12 +811,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -767,12 +831,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -786,22 +850,13 @@
       <c r="F9" s="4">
         <v>500</v>
       </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -815,19 +870,13 @@
       <c r="F10" s="4">
         <v>600</v>
       </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
@@ -841,19 +890,13 @@
       <c r="F11" s="4">
         <v>700</v>
       </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -868,12 +911,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
         <f t="shared" si="2"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
@@ -888,12 +931,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -908,29 +951,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="L17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
@@ -952,67 +978,61 @@
       <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f>D19/F19</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="14">
         <f>E19/F19</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="15">
         <f>F19+E19</f>
         <v>1600</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>1000</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="16">
         <v>600</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="17">
         <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
+    </row>
+    <row r="20" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1055,112 +1075,122 @@
       <c r="AZ20" s="2"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C21" s="2">
+      <c r="C21" s="10">
         <v>-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <f>D$19*$C21</f>
         <v>-3200</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <f>$E$19*($G21)</f>
         <v>60</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <f>D21-E21</f>
         <v>-3260</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="18">
         <f>$G$19</f>
         <v>0.06</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="18">
         <f>(C21)*($B$19)-(G21)*($C$19)</f>
         <v>-5.4333333333333327</v>
       </c>
-      <c r="L21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>20</v>
+      <c r="K21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C22" s="2">
+      <c r="C22" s="10">
         <v>-1.9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <f t="shared" ref="D22:D61" si="3">D$19*$C22</f>
         <v>-3040</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <f>$E$19*($G22)</f>
         <v>60</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <f>D22-E22</f>
         <v>-3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="18">
         <f t="shared" ref="G22:G61" si="4">$G$19</f>
         <v>0.06</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="18">
         <f t="shared" ref="H22:H61" si="5">(C22)*($B$19)-(G22)*($C$19)</f>
         <v>-5.1666666666666661</v>
       </c>
+      <c r="K22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C23" s="2">
+      <c r="C23" s="10">
         <v>-1.8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <f t="shared" si="3"/>
         <v>-2880</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <f>$E$19*($G23)</f>
         <v>60</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <f>D23-E23</f>
         <v>-2940</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H23" s="18">
         <f t="shared" si="5"/>
         <v>-4.8999999999999995</v>
       </c>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C24" s="2">
+      <c r="C24" s="10">
         <v>-1.7</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <f t="shared" si="3"/>
         <v>-2720</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <f>$E$19*($G24)</f>
         <v>60</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <f>D24-E24</f>
         <v>-2780</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H24" s="18">
         <f t="shared" si="5"/>
         <v>-4.6333333333333329</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1202,31 +1232,29 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C25" s="2">
+      <c r="C25" s="10">
         <v>-1.6</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <f t="shared" si="3"/>
         <v>-2560</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <f t="shared" ref="E25:E61" si="6">$E$19*($G25)</f>
         <v>60</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <f t="shared" ref="F25:F61" si="7">D25-E25</f>
         <v>-2620</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H25" s="18">
         <f t="shared" si="5"/>
         <v>-4.3666666666666663</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1268,31 +1296,29 @@
       <c r="AZ25" s="3"/>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C26" s="2">
+      <c r="C26" s="10">
         <v>-1.5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <f t="shared" si="3"/>
         <v>-2400</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="7"/>
         <v>-2460</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="18">
         <f t="shared" si="5"/>
         <v>-4.0999999999999996</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -1334,876 +1360,933 @@
       <c r="AZ26" s="3"/>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C27" s="2">
+      <c r="C27" s="10">
         <v>-1.4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <f t="shared" si="3"/>
         <v>-2240</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="7"/>
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H27" s="18">
         <f t="shared" si="5"/>
         <v>-3.833333333333333</v>
       </c>
+      <c r="J27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C28" s="2">
+      <c r="C28" s="10">
         <v>-1.3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <f t="shared" si="3"/>
         <v>-2080</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F28" s="4">
         <f t="shared" si="7"/>
         <v>-2140</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H28" s="18">
         <f t="shared" si="5"/>
         <v>-3.5666666666666669</v>
       </c>
+      <c r="K28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C29" s="2">
+      <c r="C29" s="10">
         <v>-1.2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <f t="shared" si="3"/>
         <v>-1920</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="4">
         <f t="shared" si="7"/>
         <v>-1980</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H29" s="18">
         <f t="shared" si="5"/>
         <v>-3.3</v>
       </c>
+      <c r="K29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C30" s="2">
+      <c r="C30" s="10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <f t="shared" si="3"/>
         <v>-1760.0000000000002</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F30" s="4">
         <f t="shared" si="7"/>
         <v>-1820.0000000000002</v>
       </c>
-      <c r="G30" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H30" s="18">
         <f t="shared" si="5"/>
         <v>-3.0333333333333337</v>
       </c>
+      <c r="K30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C31" s="2">
+      <c r="C31" s="10">
         <v>-1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <f t="shared" si="3"/>
         <v>-1600</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="7"/>
         <v>-1660</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H31" s="18">
         <f t="shared" si="5"/>
         <v>-2.7666666666666666</v>
       </c>
+      <c r="K31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C32" s="2">
+      <c r="C32" s="10">
         <v>-0.9</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <f t="shared" si="3"/>
         <v>-1440</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="7"/>
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H32" s="18">
         <f t="shared" si="5"/>
         <v>-2.5</v>
       </c>
+      <c r="K32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="2">
+      <c r="C33" s="10">
         <v>-0.8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <f t="shared" si="3"/>
         <v>-1280</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="7"/>
         <v>-1340</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H33" s="18">
         <f t="shared" si="5"/>
         <v>-2.2333333333333334</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="2">
+      <c r="C34" s="10">
         <v>-0.7</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <f t="shared" si="3"/>
         <v>-1120</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="7"/>
         <v>-1180</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H34" s="18">
         <f t="shared" si="5"/>
         <v>-1.9666666666666666</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="2">
+      <c r="C35" s="10">
         <v>-0.6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <f t="shared" si="3"/>
         <v>-960</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="7"/>
         <v>-1020</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H35" s="18">
         <f t="shared" si="5"/>
         <v>-1.7</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
+      <c r="C36" s="10">
         <v>-0.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="7"/>
         <v>-860</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H36" s="18">
         <f t="shared" si="5"/>
         <v>-1.4333333333333333</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="2">
+      <c r="C37" s="10">
         <v>-0.4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <f t="shared" si="3"/>
         <v>-640</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F37">
+      <c r="E37" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="7"/>
         <v>-700</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H37" s="18">
         <f t="shared" si="5"/>
         <v>-1.1666666666666667</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="2">
+      <c r="C38" s="10">
         <v>-0.3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <f t="shared" si="3"/>
         <v>-480</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="7"/>
         <v>-540</v>
       </c>
-      <c r="G38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H38" s="18">
         <f t="shared" si="5"/>
         <v>-0.89999999999999991</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="2">
+      <c r="C39" s="10">
         <v>-0.2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <f t="shared" si="3"/>
         <v>-320</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F39" s="4">
         <f t="shared" si="7"/>
         <v>-380</v>
       </c>
-      <c r="G39" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H39" s="18">
         <f t="shared" si="5"/>
         <v>-0.6333333333333333</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="2">
+      <c r="C40" s="10">
         <v>-0.1</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <f t="shared" si="3"/>
         <v>-160</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="7"/>
         <v>-220</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H40" s="18">
         <f t="shared" si="5"/>
         <v>-0.3666666666666667</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="2">
+      <c r="C41" s="10">
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <f>D$19*$C41</f>
         <v>0</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F41" s="4">
         <f t="shared" si="7"/>
         <v>-60</v>
       </c>
-      <c r="G41" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H41" s="18">
         <f t="shared" si="5"/>
         <v>-0.1</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="2">
+      <c r="C42" s="10">
         <v>0.1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F42" s="4">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H42" s="18">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="2">
+      <c r="C43" s="10">
         <v>0.2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F43" s="4">
         <f t="shared" si="7"/>
         <v>260</v>
       </c>
-      <c r="G43" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H43" s="18">
         <f t="shared" si="5"/>
         <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="2">
+      <c r="C44" s="10">
         <v>0.3</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="4">
         <f t="shared" si="7"/>
         <v>420</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H44" s="18">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="2">
+      <c r="C45" s="10">
         <v>0.4</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <f t="shared" si="3"/>
         <v>640</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F45" s="4">
         <f t="shared" si="7"/>
         <v>580</v>
       </c>
-      <c r="G45" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H45" s="18">
         <f t="shared" si="5"/>
         <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="2">
+      <c r="C46" s="10">
         <v>0.5</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F46" s="4">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="G46" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H46" s="18">
         <f t="shared" si="5"/>
         <v>1.2333333333333332</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="2">
+      <c r="C47" s="10">
         <v>0.6</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <f t="shared" si="3"/>
         <v>960</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F47" s="4">
         <f t="shared" si="7"/>
         <v>900</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H47" s="18">
         <f t="shared" si="5"/>
         <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="2">
+      <c r="C48" s="10">
         <v>0.7</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <f t="shared" si="3"/>
         <v>1120</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F48" s="4">
         <f t="shared" si="7"/>
         <v>1060</v>
       </c>
-      <c r="G48" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H48" s="18">
         <f t="shared" si="5"/>
         <v>1.7666666666666664</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="2">
+      <c r="C49" s="10">
         <v>0.8</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <f t="shared" si="3"/>
         <v>1280</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F49" s="4">
         <f t="shared" si="7"/>
         <v>1220</v>
       </c>
-      <c r="G49" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H49" s="18">
         <f t="shared" si="5"/>
         <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="2">
+      <c r="C50" s="10">
         <v>0.9</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <f t="shared" si="3"/>
         <v>1440</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F50" s="4">
         <f t="shared" si="7"/>
         <v>1380</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H50" s="18">
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="2">
+      <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F51" s="4">
         <f t="shared" si="7"/>
         <v>1540</v>
       </c>
-      <c r="G51" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="G51" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H51" s="18">
         <f t="shared" si="5"/>
         <v>2.5666666666666664</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="2">
+      <c r="C52" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <f t="shared" si="3"/>
         <v>1760.0000000000002</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F52" s="4">
         <f t="shared" si="7"/>
         <v>1700.0000000000002</v>
       </c>
-      <c r="G52" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H52" s="18">
         <f t="shared" si="5"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="2">
+      <c r="C53" s="10">
         <v>1.2</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <f t="shared" si="3"/>
         <v>1920</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F53" s="4">
         <f t="shared" si="7"/>
         <v>1860</v>
       </c>
-      <c r="G53" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H53" s="18">
         <f t="shared" si="5"/>
         <v>3.0999999999999996</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="2">
+      <c r="C54" s="10">
         <v>1.3</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <f t="shared" si="3"/>
         <v>2080</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F54" s="4">
         <f t="shared" si="7"/>
         <v>2020</v>
       </c>
-      <c r="G54" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="G54" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H54" s="18">
         <f t="shared" si="5"/>
         <v>3.3666666666666667</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="2">
+      <c r="C55" s="10">
         <v>1.4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <f t="shared" si="3"/>
         <v>2240</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F55" s="4">
         <f t="shared" si="7"/>
         <v>2180</v>
       </c>
-      <c r="G55" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="G55" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H55" s="18">
         <f t="shared" si="5"/>
         <v>3.6333333333333329</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="2">
+      <c r="C56" s="10">
         <v>1.5</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F56" s="4">
         <f t="shared" si="7"/>
         <v>2340</v>
       </c>
-      <c r="G56" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H56" s="18">
         <f t="shared" si="5"/>
         <v>3.9</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="2">
+      <c r="C57" s="10">
         <v>1.6</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <f t="shared" si="3"/>
         <v>2560</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F57" s="4">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="G57" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H57" s="18">
         <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="2">
+      <c r="C58" s="10">
         <v>1.7</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <f t="shared" si="3"/>
         <v>2720</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F58" s="4">
         <f t="shared" si="7"/>
         <v>2660</v>
       </c>
-      <c r="G58" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H58" s="18">
         <f t="shared" si="5"/>
         <v>4.4333333333333336</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="2">
+      <c r="C59" s="10">
         <v>1.8</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <f t="shared" si="3"/>
         <v>2880</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F59" s="4">
         <f t="shared" si="7"/>
         <v>2820</v>
       </c>
-      <c r="G59" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="G59" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H59" s="18">
         <f t="shared" si="5"/>
         <v>4.7</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="2">
+      <c r="C60" s="10">
         <v>1.9</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <f t="shared" si="3"/>
         <v>3040</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F60" s="4">
         <f t="shared" si="7"/>
         <v>2980</v>
       </c>
-      <c r="G60" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="G60" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H60" s="18">
         <f t="shared" si="5"/>
         <v>4.9666666666666668</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="2">
+      <c r="C61" s="10">
         <v>2</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <f t="shared" si="3"/>
         <v>3200</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F61" s="4">
         <f t="shared" si="7"/>
         <v>3140</v>
       </c>
-      <c r="G61" s="3">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="G61" s="18">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="H61" s="18">
         <f t="shared" si="5"/>
         <v>5.2333333333333334</v>
       </c>
@@ -2214,5 +2297,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/res/engine/leverage/레버리지_수익률_계산.xlsx
+++ b/res/engine/leverage/레버리지_수익률_계산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202201006\Desktop\project\mgcho\Toy_Project2_fastapi\res\engine\leverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E30C16-046A-4641-B2BA-1D24C8F31222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D8F41-6758-44D7-885C-495E859B033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E45D16DF-ED13-458A-875C-AD5B584E76A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>자산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,22 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총수익</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interest_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,7 +164,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total_profit_rate</t>
+    <t>revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenue_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float, int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,20 +374,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA22C3CF-051C-4597-B119-D1DB786EB87B}">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,14 +725,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
@@ -1023,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1098,14 +1114,14 @@
         <f>(C21)*($B$19)-(G21)*($C$19)</f>
         <v>-5.4333333333333327</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>30</v>
+      <c r="K21" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
@@ -1132,14 +1148,14 @@
         <f t="shared" ref="H22:H61" si="5">(C22)*($B$19)-(G22)*($C$19)</f>
         <v>-5.1666666666666661</v>
       </c>
-      <c r="K22" s="22" t="s">
-        <v>32</v>
+      <c r="K22" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
@@ -1384,16 +1400,19 @@
         <v>-3.833333333333333</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.3">
@@ -1420,14 +1439,17 @@
         <f t="shared" si="5"/>
         <v>-3.5666666666666669</v>
       </c>
-      <c r="K28" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>8</v>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.3">
@@ -1454,14 +1476,14 @@
         <f t="shared" si="5"/>
         <v>-3.3</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="L29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="M29" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.3">
@@ -1488,14 +1510,14 @@
         <f t="shared" si="5"/>
         <v>-3.0333333333333337</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>23</v>
+      <c r="L30" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.3">
@@ -1522,14 +1544,14 @@
         <f t="shared" si="5"/>
         <v>-2.7666666666666666</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="L31" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.3">
@@ -1556,14 +1578,14 @@
         <f t="shared" si="5"/>
         <v>-2.5</v>
       </c>
-      <c r="K32" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>5</v>
+      <c r="L32" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">

--- a/res/engine/leverage/레버리지_수익률_계산.xlsx
+++ b/res/engine/leverage/레버리지_수익률_계산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202201006\Desktop\project\mgcho\Toy_Project2_fastapi\res\engine\leverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D8F41-6758-44D7-885C-495E859B033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADA501-09E4-4484-9C61-F2687A4E0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E45D16DF-ED13-458A-875C-AD5B584E76A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>자산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총수익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total_profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>revenue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,19 +180,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float, int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률(코인 수익률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익률(실제 내 이익률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익(실제 내 이익)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +390,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,7 +726,7 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,17 +742,18 @@
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
@@ -1039,16 +1060,16 @@
         <v>5</v>
       </c>
       <c r="J20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M20" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1115,13 +1136,13 @@
         <v>-5.4333333333333327</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
@@ -1149,13 +1170,13 @@
         <v>-5.1666666666666661</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
@@ -1400,19 +1421,19 @@
         <v>-3.833333333333333</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.3">
@@ -1439,17 +1460,17 @@
         <f t="shared" si="5"/>
         <v>-3.5666666666666669</v>
       </c>
-      <c r="K28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>32</v>
+      <c r="K28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.3">
@@ -1477,13 +1498,13 @@
         <v>-3.3</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.3">
@@ -1511,13 +1532,13 @@
         <v>-3.0333333333333337</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.3">
@@ -1545,13 +1566,13 @@
         <v>-2.7666666666666666</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.3">
@@ -1579,13 +1600,13 @@
         <v>-2.5</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
